--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cort-Sstr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cort-Sstr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Cort</t>
   </si>
   <si>
     <t>Sstr3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +513,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,10 +534,10 @@
         <v>0.687311</v>
       </c>
       <c r="I2">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,10 +552,10 @@
         <v>2.935149</v>
       </c>
       <c r="O2">
-        <v>0.9767027457097972</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9767027457097972</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0.2241511327043333</v>
@@ -573,320 +564,10 @@
         <v>2.017360194339</v>
       </c>
       <c r="S2">
-        <v>0.5203370539282482</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.5886776348108443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.2291036666666667</v>
-      </c>
-      <c r="H3">
-        <v>0.687311</v>
-      </c>
-      <c r="I3">
-        <v>0.5327486343351117</v>
-      </c>
-      <c r="J3">
-        <v>0.6027193405533389</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.02333733333333333</v>
-      </c>
-      <c r="N3">
-        <v>0.070012</v>
-      </c>
-      <c r="O3">
-        <v>0.02329725429020276</v>
-      </c>
-      <c r="P3">
-        <v>0.02329725429020275</v>
-      </c>
-      <c r="Q3">
-        <v>0.005346668636888889</v>
-      </c>
-      <c r="R3">
-        <v>0.048120017732</v>
-      </c>
-      <c r="S3">
-        <v>0.01241158040686334</v>
-      </c>
-      <c r="T3">
-        <v>0.01404170574249445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.153494</v>
-      </c>
-      <c r="I4">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J4">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.978383</v>
-      </c>
-      <c r="N4">
-        <v>2.935149</v>
-      </c>
-      <c r="O4">
-        <v>0.9767027457097972</v>
-      </c>
-      <c r="P4">
-        <v>0.9767027457097972</v>
-      </c>
-      <c r="Q4">
-        <v>0.05005864006733333</v>
-      </c>
-      <c r="R4">
-        <v>0.4505277606060001</v>
-      </c>
-      <c r="S4">
-        <v>0.1162044776755538</v>
-      </c>
-      <c r="T4">
-        <v>0.1314666648397243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.153494</v>
-      </c>
-      <c r="I5">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J5">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.02333733333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.070012</v>
-      </c>
-      <c r="O5">
-        <v>0.02329725429020276</v>
-      </c>
-      <c r="P5">
-        <v>0.02329725429020275</v>
-      </c>
-      <c r="Q5">
-        <v>0.001194046880888889</v>
-      </c>
-      <c r="R5">
-        <v>0.010746421928</v>
-      </c>
-      <c r="S5">
-        <v>0.002771821086773064</v>
-      </c>
-      <c r="T5">
-        <v>0.003135869469917466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.1497725</v>
-      </c>
-      <c r="H6">
-        <v>0.299545</v>
-      </c>
-      <c r="I6">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J6">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.978383</v>
-      </c>
-      <c r="N6">
-        <v>2.935149</v>
-      </c>
-      <c r="O6">
-        <v>0.9767027457097972</v>
-      </c>
-      <c r="P6">
-        <v>0.9767027457097972</v>
-      </c>
-      <c r="Q6">
-        <v>0.1465348678675</v>
-      </c>
-      <c r="R6">
-        <v>0.8792092072050001</v>
-      </c>
-      <c r="S6">
-        <v>0.3401612141059953</v>
-      </c>
-      <c r="T6">
-        <v>0.2565584460592285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.1497725</v>
-      </c>
-      <c r="H7">
-        <v>0.299545</v>
-      </c>
-      <c r="I7">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J7">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02333733333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.070012</v>
-      </c>
-      <c r="O7">
-        <v>0.02329725429020276</v>
-      </c>
-      <c r="P7">
-        <v>0.02329725429020275</v>
-      </c>
-      <c r="Q7">
-        <v>0.003495290756666667</v>
-      </c>
-      <c r="R7">
-        <v>0.02097174454</v>
-      </c>
-      <c r="S7">
-        <v>0.008113852796566356</v>
-      </c>
-      <c r="T7">
-        <v>0.006119679077790839</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
